--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>1367.467774258957</v>
+        <v>0.08495955095999999</v>
       </c>
       <c r="R2">
-        <v>12307.20996833061</v>
+        <v>0.76463595864</v>
       </c>
       <c r="S2">
-        <v>0.2526139809281543</v>
+        <v>0.0001674440373184558</v>
       </c>
       <c r="T2">
-        <v>0.2526139809281544</v>
+        <v>0.0001674440373184558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>167.412015456732</v>
+        <v>0.36308684304</v>
       </c>
       <c r="R3">
-        <v>1506.708139110588</v>
+        <v>3.26778158736</v>
       </c>
       <c r="S3">
-        <v>0.03092622471681166</v>
+        <v>0.0007155961420329765</v>
       </c>
       <c r="T3">
-        <v>0.03092622471681166</v>
+        <v>0.0007155961420329765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>427.426309983661</v>
+        <v>0.1656479631777778</v>
       </c>
       <c r="R4">
-        <v>3846.836789852949</v>
+        <v>1.4908316686</v>
       </c>
       <c r="S4">
-        <v>0.07895898078981491</v>
+        <v>0.0003264702251207145</v>
       </c>
       <c r="T4">
-        <v>0.07895898078981492</v>
+        <v>0.0003264702251207145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.950836</v>
       </c>
       <c r="I5">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J5">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>2173.88485956657</v>
+        <v>62.27414285066401</v>
       </c>
       <c r="R5">
-        <v>19564.96373609913</v>
+        <v>560.467285655976</v>
       </c>
       <c r="S5">
-        <v>0.4015843874289062</v>
+        <v>0.1227340985402665</v>
       </c>
       <c r="T5">
-        <v>0.4015843874289062</v>
+        <v>0.1227340985402665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.950836</v>
       </c>
       <c r="I6">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J6">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>266.137493373936</v>
@@ -818,10 +818,10 @@
         <v>2395.237440365424</v>
       </c>
       <c r="S6">
-        <v>0.04916390202457448</v>
+        <v>0.5245217973589161</v>
       </c>
       <c r="T6">
-        <v>0.04916390202457447</v>
+        <v>0.5245217973589161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.950836</v>
       </c>
       <c r="I7">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J7">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>679.4862748099615</v>
+        <v>121.4176017327489</v>
       </c>
       <c r="R7">
-        <v>6115.376473289652</v>
+        <v>1092.75841559474</v>
       </c>
       <c r="S7">
-        <v>0.1255223238871598</v>
+        <v>0.2392980330749127</v>
       </c>
       <c r="T7">
-        <v>0.1255223238871598</v>
+        <v>0.2392980330749127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H8">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>230.9807269970223</v>
+        <v>7.883824526382</v>
       </c>
       <c r="R8">
-        <v>2078.826542973201</v>
+        <v>70.954420737438</v>
       </c>
       <c r="S8">
-        <v>0.04266934992015944</v>
+        <v>0.01553797534581114</v>
       </c>
       <c r="T8">
-        <v>0.04266934992015944</v>
+        <v>0.01553797534581114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H9">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>28.277777192364</v>
+        <v>33.692656399668</v>
       </c>
       <c r="R9">
-        <v>254.499994731276</v>
+        <v>303.233907597012</v>
       </c>
       <c r="S9">
-        <v>0.005223788086877213</v>
+        <v>0.06640376922660607</v>
       </c>
       <c r="T9">
-        <v>0.005223788086877214</v>
+        <v>0.06640376922660607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H10">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>72.19712352723033</v>
+        <v>15.37130858261056</v>
       </c>
       <c r="R10">
-        <v>649.774111745073</v>
+        <v>138.341777243495</v>
       </c>
       <c r="S10">
-        <v>0.01333706221754198</v>
+        <v>0.03029481604901531</v>
       </c>
       <c r="T10">
-        <v>0.01333706221754199</v>
+        <v>0.03029481604901531</v>
       </c>
     </row>
   </sheetData>
